--- a/medicine/Enfance/Collection_Kinkajou/Collection_Kinkajou.xlsx
+++ b/medicine/Enfance/Collection_Kinkajou/Collection_Kinkajou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection Kinkajou est une collection littéraire de l'éditeur Gallimard Jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection est créée en 1974 par Pierre Marchand, dans le cadre du développement d'un département Gallimard Jeunesse, fondé en 1972.
-Slogan de la collection en 1976 : "Des jeux et des activités pour tous" et "Une collection de poche d'activités en couleurs"[1]
+Slogan de la collection en 1976 : "Des jeux et des activités pour tous" et "Une collection de poche d'activités en couleurs"
 Les derniers titres paraissent en 1978.
 Au total, 48 titres ont été édités.
 La collection a été animée par Pierre Marchand et Jean Olivier, tous deux directeur de publication.
@@ -547,7 +561,9 @@
           <t>Liste des titres publiés[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la numérotation apparaît sur le livre)
 1. Marie-Françoise Héron, Laine et tricotins. Dessins d'Ardea. Gallimard, Kinkajou, 1974.
